--- a/WSC/Test Report/Procurement & Inventory/WSC Prcurement & Inventory_Settings.xlsx
+++ b/WSC/Test Report/Procurement & Inventory/WSC Prcurement & Inventory_Settings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="347">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -44,6 +44,12 @@
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Abhishek Anand</t>
+  </si>
+  <si>
     <t>S#</t>
   </si>
   <si>
@@ -58,6 +64,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>url</t>
     </r>
     <r>
@@ -73,6 +87,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -108,13 +130,15 @@
     </r>
   </si>
   <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Store, Store Detail, store Contact Info, Transit </t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -148,6 +172,12 @@
       </rPr>
       <t>: erp@123</t>
     </r>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Store, Store Detail, store Contact Info, Transit </t>
   </si>
   <si>
     <t>Step No.</t>
@@ -1950,7 +1980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1970,51 +2000,45 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2324,13 +2348,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>828675</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -2346,7 +2370,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="828675" y="15697200"/>
+              <a:off x="828675" y="15887700"/>
               <a:ext cx="828675" cy="381000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2365,13 +2389,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -2387,7 +2411,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9848850" y="15125700"/>
+              <a:off x="9848850" y="15316200"/>
               <a:ext cx="257175" cy="238125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2406,13 +2430,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -2428,7 +2452,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9848850" y="15125700"/>
+              <a:off x="9848850" y="15316200"/>
               <a:ext cx="257175" cy="238125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2702,10 +2726,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2750,8 +2774,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2759,538 +2787,542 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="13">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="10">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A14" s="13">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="10">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>27</v>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="13">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A15" s="10">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="13">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="10">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A17" s="13">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A17" s="10">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A18" s="13">
-        <v>8</v>
+      <c r="A18" s="10">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A19" s="13">
-        <v>9</v>
+      <c r="A19" s="10">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="13">
+    <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A20" s="10">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="C21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="D21" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="13">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="10">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="13">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A23" s="10">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="13">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>27</v>
+      <c r="E23" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A24" s="13">
-        <v>14</v>
+      <c r="A24" s="10">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>27</v>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="13">
-        <v>15</v>
+      <c r="A25" s="10">
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>27</v>
+      <c r="E25" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="13">
+      <c r="A26" s="10">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A27" s="10">
         <v>16</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A27" s="13">
+    <row r="28" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A28" s="10">
         <v>17</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A28" s="13">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>27</v>
+      <c r="E28" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A29" s="13">
-        <v>19</v>
+    <row r="29" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A29" s="10">
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>27</v>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="16"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18" t="s">
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:1">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="E32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="F32" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="22">
+      <c r="C33" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20" t="s">
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="22">
+      <c r="D34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:1">
-      <c r="A34" s="16"/>
-    </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:1">
+      <c r="A37" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3300,10 +3332,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3322,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3348,8 +3380,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3357,328 +3393,332 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A11" s="13">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A13" s="13">
+      <c r="C13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A14" s="13">
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A15" s="13">
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A16" s="13">
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A17" s="13">
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A18" s="13">
+      <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A19" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A19" s="13">
+      <c r="C19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A20" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:1">
-      <c r="A20" s="16"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
+      <c r="B20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:1">
+      <c r="A21" s="12"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="E22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="F22" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="C23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="20" t="s">
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="22">
+      <c r="D24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:4">
-      <c r="A24" s="16"/>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="16"/>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="12"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="16"/>
+      <c r="A26" s="12"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:1">
+      <c r="A27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3688,10 +3728,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3710,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3736,8 +3776,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3745,534 +3789,538 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A13" s="13">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="10">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A14" s="13">
-        <v>4</v>
+      <c r="A14" s="10">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>27</v>
+        <v>125</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="13">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A15" s="10">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="13">
-        <v>6</v>
+      <c r="A16" s="10">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A17" s="13">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="10">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
+        <v>128</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A18" s="13">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A18" s="10">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="13">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A19" s="10">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="13">
-        <v>10</v>
+      <c r="A20" s="10">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A21" s="13">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="10">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>27</v>
+      <c r="E21" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="105" spans="1:7">
-      <c r="A22" s="13">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A22" s="10">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>27</v>
+      <c r="E22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="13">
-        <v>13</v>
+    <row r="23" s="1" customFormat="1" ht="105" spans="1:7">
+      <c r="A23" s="10">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>27</v>
+      <c r="E23" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A24" s="13">
-        <v>14</v>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A24" s="10">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>27</v>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="13">
-        <v>15</v>
+    <row r="25" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A25" s="10">
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>27</v>
+      <c r="E25" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="13">
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A26" s="10">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="10">
         <v>16</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="C27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A27" s="13">
+    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A28" s="10">
         <v>17</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A28" s="13">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>27</v>
+      <c r="E28" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A29" s="13">
-        <v>19</v>
+    <row r="29" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A29" s="10">
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>27</v>
+        <v>161</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="16"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:1">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="E32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="F32" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="22">
+      <c r="C33" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20" t="s">
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="22">
+      <c r="D34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:1">
-      <c r="A34" s="16"/>
-    </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:1">
+      <c r="A37" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4282,10 +4330,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4304,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -4330,8 +4378,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4339,16 +4391,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -4356,222 +4408,211 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="13">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="10">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A15" s="13">
-        <v>5</v>
-      </c>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>55</v>
+        <v>174</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="13">
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A16" s="10">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="13">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="13">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A18" s="10">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>180</v>
@@ -4579,144 +4620,159 @@
       <c r="D18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="13">
-        <v>9</v>
+      <c r="A19" s="10">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="13">
-        <v>10</v>
+      <c r="A20" s="10">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="16"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="19" t="s">
+    <row r="23" s="1" customFormat="1" spans="1:1">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="E24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="F24" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="22">
+      <c r="C25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="20" t="s">
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="D26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="16"/>
-    </row>
     <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="16"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="16"/>
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:1">
+      <c r="A29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4726,10 +4782,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4748,13 +4804,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -4774,8 +4830,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4783,16 +4843,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -4800,380 +4860,384 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D10" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="13">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="10">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A14" s="13">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="10">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>27</v>
+        <v>201</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="13">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A15" s="10">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="13">
-        <v>6</v>
+      <c r="A16" s="10">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="13">
-        <v>7</v>
+      <c r="A17" s="10">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
+        <v>202</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="13">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="10">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="13">
-        <v>9</v>
+      <c r="A19" s="10">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="13">
-        <v>10</v>
+      <c r="A20" s="10">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="13">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="10">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>27</v>
+      <c r="E21" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="13">
-        <v>12</v>
+      <c r="A22" s="10">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>27</v>
+        <v>212</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="16"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A23" s="10">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:1">
+      <c r="A24" s="12"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="E25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="F25" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="C26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="20" t="s">
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="D27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="16"/>
-    </row>
     <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="16"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5183,10 +5247,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5205,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -5231,8 +5295,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5240,16 +5308,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:6">
@@ -5257,673 +5325,677 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>215</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="C13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A13" s="13">
+    <row r="14" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="13">
-        <v>4</v>
-      </c>
       <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>222</v>
+      <c r="E14" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="13">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="10">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A16" s="13">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="10">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="13">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A17" s="10">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="13">
-        <v>8</v>
+      <c r="A18" s="10">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A19" s="13">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A19" s="10">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A20" s="13">
-        <v>10</v>
+    <row r="20" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A20" s="10">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A21" s="13">
-        <v>11</v>
+      <c r="A21" s="10">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>27</v>
+      <c r="E21" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="13">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A22" s="10">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>27</v>
+      <c r="E22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A23" s="13">
-        <v>13</v>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A23" s="10">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>27</v>
+      <c r="E23" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A24" s="13">
-        <v>14</v>
+      <c r="A24" s="10">
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>27</v>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A25" s="13">
+    <row r="25" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A25" s="10">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A26" s="10">
         <v>15</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="B26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="C26" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A26" s="13">
+    <row r="27" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A27" s="10">
         <v>16</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="B27" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A27" s="13">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>27</v>
+      <c r="E27" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A28" s="13">
-        <v>18</v>
+    <row r="28" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A28" s="10">
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>27</v>
+      <c r="E28" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A29" s="13">
-        <v>19</v>
+      <c r="A29" s="10">
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>27</v>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A30" s="13">
-        <v>20</v>
+      <c r="A30" s="10">
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>27</v>
+      <c r="E30" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A31" s="13">
-        <v>21</v>
+    <row r="31" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A31" s="10">
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>27</v>
+      <c r="E31" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A32" s="13">
-        <v>22</v>
+      <c r="A32" s="10">
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>27</v>
+      <c r="E32" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A33" s="13">
-        <v>23</v>
+      <c r="A33" s="10">
+        <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>27</v>
+      <c r="E33" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="90" spans="1:7">
-      <c r="A34" s="13">
-        <v>24</v>
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A34" s="10">
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>27</v>
+      <c r="E34" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A35" s="13">
-        <v>25</v>
+    <row r="35" s="1" customFormat="1" ht="90" spans="1:7">
+      <c r="A35" s="10">
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>27</v>
+      <c r="E35" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A36" s="13">
+    <row r="36" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A36" s="10">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A37" s="10">
         <v>26</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="B37" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
+      <c r="C37" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A37" s="13">
+    <row r="38" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A38" s="10">
         <v>27</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:1">
-      <c r="A38" s="16"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="s">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:1">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="20" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="E40" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="22">
+      <c r="F40" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A41" s="12"/>
+      <c r="B41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="20" t="s">
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="12"/>
+      <c r="B42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="22">
+      <c r="D42" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:1">
-      <c r="A42" s="16"/>
-    </row>
     <row r="43" s="1" customFormat="1" spans="1:1">
-      <c r="A43" s="16"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:1">
-      <c r="A44" s="16"/>
+      <c r="A44" s="12"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:1">
+      <c r="A45" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5938,13 +6010,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>381000</xdr:rowOff>
               </to>
             </anchor>
@@ -5963,13 +6035,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
@@ -5988,13 +6060,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
@@ -6012,10 +6084,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6034,13 +6106,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -6060,8 +6132,12 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6069,16 +6145,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30" spans="1:6">
@@ -6086,540 +6162,544 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>296</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>299</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>300</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="13">
-        <v>3</v>
+      <c r="A13" s="10">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A14" s="13">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="10">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>27</v>
+        <v>306</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="13">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A15" s="10">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="13">
-        <v>6</v>
+      <c r="A16" s="10">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="13">
-        <v>7</v>
+      <c r="A17" s="10">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
+      <c r="E17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="13">
-        <v>8</v>
+      <c r="A18" s="10">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="13">
-        <v>9</v>
+      <c r="A19" s="10">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A20" s="13">
-        <v>10</v>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="10">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
+      <c r="E20" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A21" s="13">
-        <v>11</v>
+      <c r="A21" s="10">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>27</v>
+      <c r="E21" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="13">
-        <v>12</v>
+      <c r="A22" s="10">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>27</v>
+      <c r="E22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A23" s="13">
-        <v>13</v>
+      <c r="A23" s="10">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>27</v>
+        <v>327</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A24" s="13">
+      <c r="A24" s="10">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A25" s="10">
         <v>14</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A25" s="13">
-        <v>15</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>55</v>
+      <c r="E25" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A26" s="13">
-        <v>16</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A26" s="10">
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>55</v>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A27" s="10">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A27" s="13">
+    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A28" s="10">
         <v>17</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A28" s="13">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>27</v>
+      <c r="E28" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A29" s="13">
-        <v>19</v>
+      <c r="A29" s="10">
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>27</v>
+      <c r="E29" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="13">
-        <v>20</v>
+    <row r="30" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A30" s="10">
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>27</v>
+        <v>346</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:1">
-      <c r="A31" s="16"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A31" s="10">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:1">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="E33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="F33" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="22">
+      <c r="C34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20" t="s">
+    <row r="35" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="12"/>
+      <c r="B35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="22">
+      <c r="D35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="18">
         <v>59</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="16"/>
-    </row>
     <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:1">
+      <c r="A38" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
